--- a/Data/EC/NIT-9004163916.xlsx
+++ b/Data/EC/NIT-9004163916.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1448F980-1F94-492A-ABAA-A2DD7ACA154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10260264-A410-4513-8E1A-E56AAD46D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5C941CC-0905-4255-AED0-9966B59E4CB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92F15832-39D3-4FA4-8865-825BEFD76D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,28 +71,88 @@
     <t>JAIME RAFAEL RAMIREZ</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>1912</t>
   </si>
   <si>
+    <t>73099003</t>
+  </si>
+  <si>
+    <t>RENE RICARDO GUEVARA PELUFO</t>
+  </si>
+  <si>
+    <t>1047416254</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID GUTIERREZ DUQUE</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1049937841</t>
+  </si>
+  <si>
+    <t>ELKIN DAVID ARRAZOLA PAYARES</t>
+  </si>
+  <si>
+    <t>18878041</t>
+  </si>
+  <si>
+    <t>JORGE BENITEZ OLIVERA</t>
+  </si>
+  <si>
+    <t>1047497994</t>
+  </si>
+  <si>
+    <t>JEFFERSON ZUÑIGA PARRA</t>
+  </si>
+  <si>
+    <t>1002076986</t>
+  </si>
+  <si>
+    <t>ROBERT CARABALLO PADILLA</t>
+  </si>
+  <si>
     <t>1047506681</t>
   </si>
   <si>
     <t>YESIT MILFRET DE LA ROSA CASTELLAR</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1047416254</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID GUTIERREZ DUQUE</t>
-  </si>
-  <si>
-    <t>18878041</t>
-  </si>
-  <si>
-    <t>JORGE BENITEZ OLIVERA</t>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
   </si>
   <si>
     <t>1002258013</t>
@@ -101,70 +161,10 @@
     <t>BRAYAN SANDOBAL MARIMON</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>1005488114</t>
   </si>
   <si>
     <t>JOSE GREGORIO BENITEZ BENITEZ</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>73099003</t>
-  </si>
-  <si>
-    <t>RENE RICARDO GUEVARA PELUFO</t>
-  </si>
-  <si>
-    <t>1049937841</t>
-  </si>
-  <si>
-    <t>ELKIN DAVID ARRAZOLA PAYARES</t>
-  </si>
-  <si>
-    <t>1047497994</t>
-  </si>
-  <si>
-    <t>JEFFERSON ZUÑIGA PARRA</t>
-  </si>
-  <si>
-    <t>1002076986</t>
-  </si>
-  <si>
-    <t>ROBERT CARABALLO PADILLA</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -578,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61C2374-02E2-BD10-303B-050D2A55E9B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D760A4A-93C6-13E4-BB9B-E1ED313D3ED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D34468-ECC3-4321-976D-554A5DA2D31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC536F-4B7D-42F5-AE9F-668F763A4306}">
   <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7729</v>
+        <v>29073</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1121,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>7729</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1213,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1236,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1288,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1305,10 +1305,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>21</v>
@@ -1328,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1351,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1374,10 +1374,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>24</v>
@@ -1403,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1420,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1443,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1466,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1489,19 +1489,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1512,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1535,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1558,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F36" s="18">
         <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1581,19 +1581,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F37" s="18">
         <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1604,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1627,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1650,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1673,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1696,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1719,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1742,19 +1742,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1765,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G45" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1788,19 +1788,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1811,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1834,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1857,19 +1857,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1880,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>25439</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1903,16 +1903,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G51" s="18">
         <v>877803</v>
@@ -1926,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1949,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1972,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -1995,13 +1995,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2018,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F56" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G56" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2041,13 +2041,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2070,13 +2070,13 @@
         <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F58" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G58" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2087,19 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F59" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G59" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2110,13 +2110,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2133,19 +2133,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F61" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2156,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F62" s="18">
-        <v>25439</v>
+        <v>35112</v>
       </c>
       <c r="G62" s="18">
-        <v>1250000</v>
+        <v>877803</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2179,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G63" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2202,16 +2202,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G64" s="18">
         <v>877803</v>
@@ -2225,19 +2225,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F65" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G65" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2248,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2271,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2294,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F68" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2317,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F69" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G69" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2346,13 +2346,13 @@
         <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F70" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G70" s="18">
-        <v>1250000</v>
+        <v>877803</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2363,19 +2363,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F71" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2386,16 +2386,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F72" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
         <v>877803</v>
@@ -2409,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F73" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2432,16 +2432,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F74" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G74" s="18">
         <v>877803</v>
@@ -2455,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F75" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G75" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2484,13 +2484,13 @@
         <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F76" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G76" s="18">
-        <v>1250000</v>
+        <v>877803</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2501,16 +2501,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F77" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2524,19 +2524,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F78" s="24">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G78" s="24">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>

--- a/Data/EC/NIT-9004163916.xlsx
+++ b/Data/EC/NIT-9004163916.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10260264-A410-4513-8E1A-E56AAD46D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3143C972-2B7C-4914-9D38-9A70CFBFA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92F15832-39D3-4FA4-8865-825BEFD76D8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E0CADD2-504B-4667-91A8-754CCE5826F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,100 +71,100 @@
     <t>JAIME RAFAEL RAMIREZ</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1047416254</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID GUTIERREZ DUQUE</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>18878041</t>
+  </si>
+  <si>
+    <t>JORGE BENITEZ OLIVERA</t>
+  </si>
+  <si>
+    <t>1047506681</t>
+  </si>
+  <si>
+    <t>YESIT MILFRET DE LA ROSA CASTELLAR</t>
+  </si>
+  <si>
+    <t>1002258013</t>
+  </si>
+  <si>
+    <t>BRAYAN SANDOBAL MARIMON</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1005488114</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO BENITEZ BENITEZ</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>73099003</t>
+  </si>
+  <si>
+    <t>RENE RICARDO GUEVARA PELUFO</t>
+  </si>
+  <si>
+    <t>1049937841</t>
+  </si>
+  <si>
+    <t>ELKIN DAVID ARRAZOLA PAYARES</t>
+  </si>
+  <si>
+    <t>1047497994</t>
+  </si>
+  <si>
+    <t>JEFFERSON ZUÑIGA PARRA</t>
+  </si>
+  <si>
+    <t>1002076986</t>
+  </si>
+  <si>
+    <t>ROBERT CARABALLO PADILLA</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>73099003</t>
-  </si>
-  <si>
-    <t>RENE RICARDO GUEVARA PELUFO</t>
-  </si>
-  <si>
-    <t>1047416254</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID GUTIERREZ DUQUE</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1049937841</t>
-  </si>
-  <si>
-    <t>ELKIN DAVID ARRAZOLA PAYARES</t>
-  </si>
-  <si>
-    <t>18878041</t>
-  </si>
-  <si>
-    <t>JORGE BENITEZ OLIVERA</t>
-  </si>
-  <si>
-    <t>1047497994</t>
-  </si>
-  <si>
-    <t>JEFFERSON ZUÑIGA PARRA</t>
-  </si>
-  <si>
-    <t>1002076986</t>
-  </si>
-  <si>
-    <t>ROBERT CARABALLO PADILLA</t>
-  </si>
-  <si>
-    <t>1047506681</t>
-  </si>
-  <si>
-    <t>YESIT MILFRET DE LA ROSA CASTELLAR</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1002258013</t>
-  </si>
-  <si>
-    <t>BRAYAN SANDOBAL MARIMON</t>
-  </si>
-  <si>
-    <t>1005488114</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO BENITEZ BENITEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +263,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +278,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +478,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +522,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D760A4A-93C6-13E4-BB9B-E1ED313D3ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23207125-A4B2-208C-0887-57A98BEAA5A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC536F-4B7D-42F5-AE9F-668F763A4306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA03C57C-0702-4EB5-BB31-10B069F3E3C4}">
   <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29073</v>
+        <v>7729</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1121,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>7729</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1213,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1242,13 +1242,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1265,7 +1265,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1282,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1305,10 +1305,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>21</v>
@@ -1328,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1351,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1397,13 +1397,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1420,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1443,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1466,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1489,19 +1489,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1512,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1535,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1558,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1581,19 +1581,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1604,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1627,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1650,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1673,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1696,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1719,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1742,19 +1742,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1765,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1788,19 +1788,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1811,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1834,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>29073</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1857,19 +1857,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G49" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1880,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>25439</v>
+        <v>35112</v>
       </c>
       <c r="G50" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1903,16 +1903,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G51" s="18">
         <v>877803</v>
@@ -1926,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1949,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1972,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -1995,19 +1995,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2018,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2047,13 +2047,13 @@
         <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2064,13 +2064,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2087,19 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2110,19 +2110,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
-        <v>35112</v>
+        <v>25439</v>
       </c>
       <c r="G60" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2133,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2156,13 +2156,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2179,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F63" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2202,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F64" s="18">
-        <v>28090</v>
+        <v>36341</v>
       </c>
       <c r="G64" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2225,19 +2225,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F65" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2248,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2271,19 +2271,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G67" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2300,13 +2300,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G68" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2317,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2340,13 +2340,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2363,19 +2363,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G71" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2386,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G72" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2409,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G73" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2432,16 +2432,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G74" s="18">
         <v>877803</v>
@@ -2455,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2484,13 +2484,13 @@
         <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F76" s="18">
-        <v>35112</v>
+        <v>29073</v>
       </c>
       <c r="G76" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2501,16 +2501,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2524,16 +2524,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D78" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F78" s="24">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G78" s="24">
         <v>877803</v>
